--- a/DatosRegion-Indigena.xlsx
+++ b/DatosRegion-Indigena.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matias\Dropbox\CIIR\Censo\censo_indigena\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382AEF5D-AC19-4CD3-BC94-6C68EECBA3D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6317BC-32FE-41DE-9643-667AC0A057C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E13A3416-046C-42DD-8F30-F3C9CDFBA19A}"/>
+    <workbookView xWindow="7545" yWindow="3135" windowWidth="21600" windowHeight="11235" xr2:uid="{E13A3416-046C-42DD-8F30-F3C9CDFBA19A}"/>
   </bookViews>
   <sheets>
     <sheet name="País" sheetId="1" r:id="rId1"/>
@@ -342,48 +342,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="41" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="41" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="41" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="41" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="41" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares [0]" xfId="1" builtinId="6"/>
@@ -395,9 +387,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="33" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="33" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
@@ -452,6 +441,9 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -466,27 +458,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0E8D7E09-5A29-4C3B-B94D-1B9D0EAF428B}" name="Tabla2" displayName="Tabla2" ref="B26:S52" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0E8D7E09-5A29-4C3B-B94D-1B9D0EAF428B}" name="Tabla2" displayName="Tabla2" ref="B26:S52" totalsRowShown="0" headerRowDxfId="18">
   <autoFilter ref="B26:S52" xr:uid="{0E8D7E09-5A29-4C3B-B94D-1B9D0EAF428B}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{7FD4A99F-F3DA-41C9-A746-2AFFEBDC516A}" name="Pueblo Originario" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{DC861769-A159-4D90-A112-B53AB1D1BC68}" name="Arica" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{3396E90A-C266-42D6-B952-F6D5F8E65111}" name="Tarapacá" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{2FB75D88-241F-4D56-B5C8-30C5408C4F71}" name="Antofagasta" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{828C777B-629C-436A-8134-01AD8156E260}" name="Atacama" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{BA996C30-E227-4F30-A99B-99B757912CF7}" name="Coquimbo" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{5D7EA67A-9FB7-44D1-8178-79AEEA4BB8DF}" name="Valparaíso" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{B42E1DDF-6A0C-45C9-BEC7-0C4CC76436CB}" name="Metropolitana" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{EFC73510-FA06-4A33-94BA-09D792D30AD2}" name="O'Higgins" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{70B33E1B-B6E2-4B47-92E5-B06C6E51DBF0}" name="Maule" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{ABB2FB85-4CD0-4989-9CA0-71160B0A215B}" name="Bío Bío" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{38191A13-F592-47C7-95EC-BF0D46EC8465}" name="Araucanía" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{E79133D7-9EAF-48B2-808A-D626810DCB52}" name="Los Ríos" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{AC156EF5-BB7B-432D-8B81-A03D843CD098}" name="Los Lagos" dataDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{5D3CC085-A57A-45AC-AFC5-0462FB91762F}" name="Aysén" dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{D38F16DE-8B74-4F6E-8E97-3F46F5D5B3D3}" name="Magallanes" dataDxfId="3"/>
-    <tableColumn id="17" xr3:uid="{33D74F07-E1FD-4AE7-A56F-DC8C48EBCBE8}" name="Total" dataDxfId="0"/>
-    <tableColumn id="18" xr3:uid="{F217F36D-501D-45A7-AD14-9E2BEEA3433D}" name="Total pueblo pro" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{7FD4A99F-F3DA-41C9-A746-2AFFEBDC516A}" name="Pueblo Originario" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{DC861769-A159-4D90-A112-B53AB1D1BC68}" name="Arica" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{3396E90A-C266-42D6-B952-F6D5F8E65111}" name="Tarapacá" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{2FB75D88-241F-4D56-B5C8-30C5408C4F71}" name="Antofagasta" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{828C777B-629C-436A-8134-01AD8156E260}" name="Atacama" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{BA996C30-E227-4F30-A99B-99B757912CF7}" name="Coquimbo" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{5D7EA67A-9FB7-44D1-8178-79AEEA4BB8DF}" name="Valparaíso" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{B42E1DDF-6A0C-45C9-BEC7-0C4CC76436CB}" name="Metropolitana" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{EFC73510-FA06-4A33-94BA-09D792D30AD2}" name="O'Higgins" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{70B33E1B-B6E2-4B47-92E5-B06C6E51DBF0}" name="Maule" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{ABB2FB85-4CD0-4989-9CA0-71160B0A215B}" name="Bío Bío" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{38191A13-F592-47C7-95EC-BF0D46EC8465}" name="Araucanía" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{E79133D7-9EAF-48B2-808A-D626810DCB52}" name="Los Ríos" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{AC156EF5-BB7B-432D-8B81-A03D843CD098}" name="Los Lagos" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{5D3CC085-A57A-45AC-AFC5-0462FB91762F}" name="Aysén" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{D38F16DE-8B74-4F6E-8E97-3F46F5D5B3D3}" name="Magallanes" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{33D74F07-E1FD-4AE7-A56F-DC8C48EBCBE8}" name="Total" dataDxfId="1"/>
+    <tableColumn id="18" xr3:uid="{F217F36D-501D-45A7-AD14-9E2BEEA3433D}" name="Total pueblo pro" dataDxfId="0">
       <calculatedColumnFormula>SUM(C27:Q27)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -793,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93638626-408E-4C8C-A124-9573E9AAAF3D}">
   <dimension ref="B1:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,18 +810,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
@@ -839,100 +831,100 @@
       <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>2185792</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <f>(C4*100)/C7</f>
         <v>12.437644400083464</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="16" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>14890284</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <f>(C5*100)/C7</f>
         <v>84.729039820921841</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="13">
         <f>(C12*7500)/C23</f>
         <v>6230.5706224816267</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="13">
         <f>(C12*10000)/C23</f>
         <v>8307.427496642169</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="13">
         <f>(C12*12500)/C23</f>
         <v>10384.284370802712</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="13">
         <f>(C12*15000)/C23</f>
         <v>12461.141244963253</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>497927</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <f>(C6*100)/C7</f>
         <v>2.833315778994689</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="13">
         <f>(C13*7500)/C23</f>
         <v>577.35287545702101</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="13">
         <f>(C13*10000)/C23</f>
         <v>769.80383394269461</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="13">
         <f>(C13*12500)/C23</f>
         <v>962.25479242836832</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="13">
         <f>(C13*15000)/C23</f>
         <v>1154.705750914042</v>
       </c>
@@ -949,93 +941,93 @@
         <f>SUM(D4:D6)</f>
         <v>100</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="13">
         <f>(C14*7500)/C23</f>
         <v>34.618189497049777</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="13">
         <f>(C14*10000)/C23</f>
         <v>46.157585996066366</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="13">
         <f>(C14*12500)/C23</f>
         <v>57.696982495082956</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="13">
         <f>(C14*15000)/C23</f>
         <v>69.236378994099553</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H8" s="12" t="s">
+      <c r="H8" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="13">
         <f>(C15*7500)/C23</f>
         <v>111.85443098583941</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="13">
         <f>(C15*10000)/C23</f>
         <v>149.13924131445253</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="13">
         <f>(C15*12500)/C23</f>
         <v>186.42405164306567</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="13">
         <f>(C15*15000)/C23</f>
         <v>223.70886197167883</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="H9" s="5" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="H9" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="13">
         <f>(C16*7500)/C23</f>
         <v>124.74187061241427</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="13">
         <f>(C16*10000)/C23</f>
         <v>166.3224941498857</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="13">
         <f>(C16*12500)/C23</f>
         <v>207.90311768735711</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="13">
         <f>(C16*15000)/C23</f>
         <v>249.48374122482855</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="H10" s="12" t="s">
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="H10" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="13">
         <f>(C17*7500)/C23</f>
         <v>76.403843273412122</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="13">
         <f>(C17*10000)/C23</f>
         <v>101.87179103121616</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="13">
         <f>(C17*12500)/C23</f>
         <v>127.3397387890202</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10" s="13">
         <f>(C17*15000)/C23</f>
         <v>152.80768654682424</v>
       </c>
@@ -1048,196 +1040,196 @@
       <c r="D11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="13">
         <f>(C18*7500)/C23</f>
         <v>325.8654854305758</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="13">
         <f>(C18*10000)/C23</f>
         <v>434.48731390743438</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="13">
         <f>(C18*12500)/C23</f>
         <v>543.10914238429291</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="13">
         <f>(C18*15000)/C23</f>
         <v>651.7309708611516</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
+      <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>1691629</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <f>(C12*100)/C22</f>
         <v>77.392039132726268</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="13">
         <f>(C19*7500)/C23</f>
         <v>12.699597551423302</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="13">
         <f>(C19*10000)/C23</f>
         <v>16.932796735231069</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12" s="13">
         <f>(C19*12500)/C23</f>
         <v>21.165995919038838</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12" s="13">
         <f>(C19*15000)/C23</f>
         <v>25.399195102846605</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
+      <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>156754</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <f>(C13*100)/C22</f>
         <v>7.1714966474394632</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="13">
         <f>(C20*7500)/C23</f>
         <v>5.8930847106372637</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="13">
         <f>(C20*10000)/C23</f>
         <v>7.8574462808496843</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13" s="13">
         <f>(C20*12500)/C23</f>
         <v>9.8218078510621059</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L13" s="13">
         <f>(C20*15000)/C23</f>
         <v>11.786169421274527</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="12" t="s">
+      <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>9399</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <f>(C14*100)/C22</f>
         <v>0.43000431880069101</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="13">
         <f>SUM(I5:I13)</f>
         <v>7500.0000000000009</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="13">
         <f>SUM(J5:J13)</f>
         <v>10000.000000000004</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="13">
         <f>SUM(K5:K13)</f>
         <v>12500</v>
       </c>
-      <c r="L14" s="16">
+      <c r="L14" s="13">
         <f>SUM(L5:L13)</f>
         <v>15000.000000000002</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
+      <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>30369</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <f>(C15*100)/C22</f>
         <v>1.3893819723011156</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
+      <c r="B16" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="11">
         <v>33868</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <f>(C16*100)/C22</f>
         <v>1.5494612479137997</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
+      <c r="B17" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>20744</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <f>(C17*100)/C22</f>
         <v>0.94903815184610429</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="12" t="s">
+      <c r="B18" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>88474</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <f>(C18*100)/C22</f>
         <v>4.0476861476297836</v>
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
+      <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>3448</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <f>(C19*100)/C22</f>
         <v>0.15774602523936404</v>
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" s="12" t="s">
+      <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>1600</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <f>(C20*100)/C22</f>
         <v>7.320001171200187E-2</v>
       </c>
     </row>
     <row r="21" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="9">
         <v>149507</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="10">
         <f>(C21*100)/C22</f>
         <v>6.8399463443914152</v>
       </c>
@@ -1265,82 +1257,82 @@
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
     </row>
     <row r="26" spans="2:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="G26" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="H26" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="I26" s="15" t="s">
+      <c r="I26" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="J26" s="15" t="s">
+      <c r="J26" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="K26" s="15" t="s">
+      <c r="K26" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="L26" s="15" t="s">
+      <c r="L26" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="M26" s="15" t="s">
+      <c r="M26" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="N26" s="15" t="s">
+      <c r="N26" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="O26" s="15" t="s">
+      <c r="O26" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="P26" s="15" t="s">
+      <c r="P26" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="Q26" s="15" t="s">
+      <c r="Q26" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="R26" s="15" t="s">
+      <c r="R26" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="S26" s="15" t="s">
+      <c r="S26" s="12" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B27" s="5" t="s">
+      <c r="B27" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="1">
@@ -1393,82 +1385,82 @@
         <v>1691629</v>
       </c>
       <c r="S27" s="2">
-        <f>SUM(C27:Q27)</f>
+        <f t="shared" ref="S27:S45" si="0">SUM(C27:Q27)</f>
         <v>1691629</v>
       </c>
     </row>
-    <row r="28" spans="2:19" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="21" t="s">
+    <row r="28" spans="2:19" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="22">
-        <f>(C27*C49)/C48</f>
+      <c r="C28" s="18">
+        <f t="shared" ref="C28:Q28" si="1">(C27*C49)/C48</f>
         <v>28.780479659928222</v>
       </c>
-      <c r="D28" s="22">
-        <f>(D27*D49)/D48</f>
+      <c r="D28" s="18">
+        <f t="shared" si="1"/>
         <v>45.550062958066597</v>
       </c>
-      <c r="E28" s="22">
-        <f>(E27*E49)/E48</f>
+      <c r="E28" s="18">
+        <f t="shared" si="1"/>
         <v>64.198075310026738</v>
       </c>
-      <c r="F28" s="22">
-        <f>(F27*F49)/F48</f>
+      <c r="F28" s="18">
+        <f t="shared" si="1"/>
         <v>33.222411893083255</v>
       </c>
-      <c r="G28" s="22">
-        <f>(G27*G49)/G48</f>
+      <c r="G28" s="18">
+        <f t="shared" si="1"/>
         <v>91.159057023704051</v>
       </c>
-      <c r="H28" s="22">
-        <f>(H27*H49)/H48</f>
+      <c r="H28" s="18">
+        <f t="shared" si="1"/>
         <v>337.91097081142243</v>
       </c>
-      <c r="I28" s="22">
-        <f>(I27*I49)/I48</f>
+      <c r="I28" s="18">
+        <f t="shared" si="1"/>
         <v>2251.9491463829072</v>
       </c>
-      <c r="J28" s="22">
-        <f>(J27*J49)/J48</f>
+      <c r="J28" s="18">
+        <f t="shared" si="1"/>
         <v>188.85210059932936</v>
       </c>
-      <c r="K28" s="22">
-        <f>(K27*K49)/K48</f>
+      <c r="K28" s="18">
+        <f t="shared" si="1"/>
         <v>162.57619301116353</v>
       </c>
-      <c r="L28" s="22">
-        <f>(L27*L49)/L48</f>
+      <c r="L28" s="18">
+        <f t="shared" si="1"/>
         <v>635.9108490204668</v>
       </c>
-      <c r="M28" s="22">
-        <f>(M27*M49)/M48</f>
+      <c r="M28" s="18">
+        <f t="shared" si="1"/>
         <v>1153.532232369286</v>
       </c>
-      <c r="N28" s="22">
-        <f>(N27*N49)/N48</f>
+      <c r="N28" s="18">
+        <f t="shared" si="1"/>
         <v>338.67339201562066</v>
       </c>
-      <c r="O28" s="22">
-        <f>(O27*O49)/O48</f>
+      <c r="O28" s="18">
+        <f t="shared" si="1"/>
         <v>688.21957337806862</v>
       </c>
-      <c r="P28" s="22">
-        <f>(P27*P49)/P48</f>
+      <c r="P28" s="18">
+        <f t="shared" si="1"/>
         <v>97.86247050989158</v>
       </c>
-      <c r="Q28" s="22">
-        <f>(Q27*Q49)/Q48</f>
+      <c r="Q28" s="18">
+        <f t="shared" si="1"/>
         <v>112.20114562073118</v>
       </c>
-      <c r="R28" s="24"/>
-      <c r="S28" s="30">
-        <f>SUM(C28:Q28)</f>
+      <c r="R28" s="19"/>
+      <c r="S28" s="22">
+        <f t="shared" si="0"/>
         <v>6230.5981605636953</v>
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B29" s="5" t="s">
+      <c r="B29" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="1">
@@ -1517,86 +1509,86 @@
         <v>163</v>
       </c>
       <c r="R29" s="1">
-        <f t="shared" ref="R29:R43" si="0">SUM(C29:Q29)</f>
+        <f t="shared" ref="R29:R43" si="2">SUM(C29:Q29)</f>
         <v>156754</v>
       </c>
       <c r="S29" s="2">
-        <f>SUM(C29:Q29)</f>
+        <f t="shared" si="0"/>
         <v>156754</v>
       </c>
     </row>
-    <row r="30" spans="2:19" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="21" t="s">
+    <row r="30" spans="2:19" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="22">
-        <f t="shared" ref="C30:Q30" si="1">(C29*C49)/C48</f>
+      <c r="C30" s="18">
+        <f t="shared" ref="C30:Q30" si="3">(C29*C49)/C48</f>
         <v>218.89959907203149</v>
       </c>
-      <c r="D30" s="22">
-        <f t="shared" si="1"/>
+      <c r="D30" s="18">
+        <f t="shared" si="3"/>
         <v>180.34392194378364</v>
       </c>
-      <c r="E30" s="22">
-        <f t="shared" si="1"/>
+      <c r="E30" s="18">
+        <f t="shared" si="3"/>
         <v>47.369560904317495</v>
       </c>
-      <c r="F30" s="22">
-        <f t="shared" si="1"/>
+      <c r="F30" s="18">
+        <f t="shared" si="3"/>
         <v>10.003555510156774</v>
       </c>
-      <c r="G30" s="22">
-        <f t="shared" si="1"/>
+      <c r="G30" s="18">
+        <f t="shared" si="3"/>
         <v>20.368064054185187</v>
       </c>
-      <c r="H30" s="22">
-        <f t="shared" si="1"/>
+      <c r="H30" s="18">
+        <f t="shared" si="3"/>
         <v>21.660865226521356</v>
       </c>
-      <c r="I30" s="22">
-        <f t="shared" si="1"/>
+      <c r="I30" s="18">
+        <f t="shared" si="3"/>
         <v>58.886909240201234</v>
       </c>
-      <c r="J30" s="22">
-        <f t="shared" si="1"/>
+      <c r="J30" s="18">
+        <f t="shared" si="3"/>
         <v>4.154643083746997</v>
       </c>
-      <c r="K30" s="22">
-        <f t="shared" si="1"/>
+      <c r="K30" s="18">
+        <f t="shared" si="3"/>
         <v>2.537720819770994</v>
       </c>
-      <c r="L30" s="22">
-        <f t="shared" si="1"/>
+      <c r="L30" s="18">
+        <f t="shared" si="3"/>
         <v>6.0956864393628365</v>
       </c>
-      <c r="M30" s="22">
-        <f t="shared" si="1"/>
+      <c r="M30" s="18">
+        <f t="shared" si="3"/>
         <v>1.8010819751350016</v>
       </c>
-      <c r="N30" s="22">
-        <f t="shared" si="1"/>
+      <c r="N30" s="18">
+        <f t="shared" si="3"/>
         <v>0.97972966336586986</v>
       </c>
-      <c r="O30" s="22">
-        <f t="shared" si="1"/>
+      <c r="O30" s="18">
+        <f t="shared" si="3"/>
         <v>3.0570512052393681</v>
       </c>
-      <c r="P30" s="22">
-        <f t="shared" si="1"/>
+      <c r="P30" s="18">
+        <f t="shared" si="3"/>
         <v>0.59667746415515388</v>
       </c>
-      <c r="Q30" s="22">
-        <f t="shared" si="1"/>
+      <c r="Q30" s="18">
+        <f t="shared" si="3"/>
         <v>0.60036065837833386</v>
       </c>
-      <c r="R30" s="24"/>
-      <c r="S30" s="30">
-        <f>SUM(C30:Q30)</f>
+      <c r="R30" s="19"/>
+      <c r="S30" s="22">
+        <f t="shared" si="0"/>
         <v>577.35542726035192</v>
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B31" s="12" t="s">
+      <c r="B31" t="s">
         <v>11</v>
       </c>
       <c r="C31">
@@ -1645,86 +1637,86 @@
         <v>54</v>
       </c>
       <c r="R31" s="1">
+        <f t="shared" si="2"/>
+        <v>9399</v>
+      </c>
+      <c r="S31" s="2">
         <f t="shared" si="0"/>
         <v>9399</v>
       </c>
-      <c r="S31" s="2">
-        <f>SUM(C31:Q31)</f>
-        <v>9399</v>
-      </c>
-    </row>
-    <row r="32" spans="2:19" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="21" t="s">
+    </row>
+    <row r="32" spans="2:19" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="25">
-        <f t="shared" ref="C32:L32" si="2">(C31*C49)/C48</f>
+      <c r="C32" s="20">
+        <f t="shared" ref="C32:L32" si="4">(C31*C49)/C48</f>
         <v>0.13996138048083853</v>
       </c>
-      <c r="D32" s="25">
-        <f t="shared" si="2"/>
+      <c r="D32" s="20">
+        <f t="shared" si="4"/>
         <v>0.30938831474711681</v>
       </c>
-      <c r="E32" s="22">
-        <f t="shared" si="2"/>
+      <c r="E32" s="18">
+        <f t="shared" si="4"/>
         <v>0.37936900498753612</v>
       </c>
-      <c r="F32" s="22">
-        <f t="shared" si="2"/>
+      <c r="F32" s="18">
+        <f t="shared" si="4"/>
         <v>0.20257568227489789</v>
       </c>
-      <c r="G32" s="22">
-        <f t="shared" si="2"/>
+      <c r="G32" s="18">
+        <f t="shared" si="4"/>
         <v>0.5487959392538142</v>
       </c>
-      <c r="H32" s="22">
-        <f t="shared" si="2"/>
+      <c r="H32" s="18">
+        <f t="shared" si="4"/>
         <v>16.817464823039707</v>
       </c>
-      <c r="I32" s="22">
-        <f t="shared" si="2"/>
+      <c r="I32" s="18">
+        <f t="shared" si="4"/>
         <v>11.093781000218046</v>
       </c>
-      <c r="J32" s="22">
-        <f t="shared" si="2"/>
+      <c r="J32" s="18">
+        <f t="shared" si="4"/>
         <v>0.9318481384645303</v>
       </c>
-      <c r="K32" s="22">
-        <f t="shared" si="2"/>
+      <c r="K32" s="18">
+        <f t="shared" si="4"/>
         <v>0.677707737065113</v>
       </c>
-      <c r="L32" s="22">
-        <f t="shared" si="2"/>
+      <c r="L32" s="18">
+        <f t="shared" si="4"/>
         <v>1.5911399044137435</v>
       </c>
-      <c r="M32" s="22">
-        <f t="shared" ref="M32:Q32" si="3">(M31*M49)/M48</f>
+      <c r="M32" s="18">
+        <f t="shared" ref="M32:Q32" si="5">(M31*M49)/M48</f>
         <v>0.59299426993197391</v>
       </c>
-      <c r="N32" s="22">
-        <f t="shared" si="3"/>
+      <c r="N32" s="18">
+        <f t="shared" si="5"/>
         <v>0.27623956673849714</v>
       </c>
-      <c r="O32" s="22">
-        <f t="shared" si="3"/>
+      <c r="O32" s="18">
+        <f t="shared" si="5"/>
         <v>0.76610439842143196</v>
       </c>
-      <c r="P32" s="22">
-        <f t="shared" si="3"/>
+      <c r="P32" s="18">
+        <f t="shared" si="5"/>
         <v>9.2079855579499062E-2</v>
       </c>
-      <c r="Q32" s="22">
-        <f t="shared" si="3"/>
+      <c r="Q32" s="18">
+        <f t="shared" si="5"/>
         <v>0.19889248805171794</v>
       </c>
-      <c r="R32" s="24"/>
-      <c r="S32" s="30">
-        <f>SUM(C32:Q32)</f>
+      <c r="R32" s="19"/>
+      <c r="S32" s="22">
+        <f t="shared" si="0"/>
         <v>34.618342503668465</v>
       </c>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B33" s="12" t="s">
+      <c r="B33" t="s">
         <v>12</v>
       </c>
       <c r="C33">
@@ -1772,87 +1764,87 @@
       <c r="Q33">
         <v>19</v>
       </c>
-      <c r="R33" s="29">
+      <c r="R33" s="21">
+        <f t="shared" si="2"/>
+        <v>30360</v>
+      </c>
+      <c r="S33" s="2">
         <f t="shared" si="0"/>
         <v>30360</v>
       </c>
-      <c r="S33" s="2">
-        <f>SUM(C33:Q33)</f>
-        <v>30360</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="21" t="s">
+    </row>
+    <row r="34" spans="2:19" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="22">
-        <f t="shared" ref="C34:L34" si="4">(C33*C49)/C48</f>
+      <c r="C34" s="18">
+        <f t="shared" ref="C34:L34" si="6">(C33*C49)/C48</f>
         <v>2.7402965020458914</v>
       </c>
-      <c r="D34" s="22">
-        <f t="shared" si="4"/>
+      <c r="D34" s="18">
+        <f t="shared" si="6"/>
         <v>3.0054864861148491</v>
       </c>
-      <c r="E34" s="22">
-        <f t="shared" si="4"/>
+      <c r="E34" s="18">
+        <f t="shared" si="6"/>
         <v>93.044852465972198</v>
       </c>
-      <c r="F34" s="22">
-        <f t="shared" si="4"/>
+      <c r="F34" s="18">
+        <f t="shared" si="6"/>
         <v>1.3811978336924855</v>
       </c>
-      <c r="G34" s="22">
-        <f t="shared" si="4"/>
+      <c r="G34" s="18">
+        <f t="shared" si="6"/>
         <v>3.5248168715832229</v>
       </c>
-      <c r="H34" s="22">
-        <f t="shared" si="4"/>
+      <c r="H34" s="18">
+        <f t="shared" si="6"/>
         <v>2.014707240079439</v>
       </c>
-      <c r="I34" s="22">
-        <f t="shared" si="4"/>
+      <c r="I34" s="18">
+        <f t="shared" si="6"/>
         <v>4.1251775299615572</v>
       </c>
-      <c r="J34" s="22">
-        <f t="shared" si="4"/>
+      <c r="J34" s="18">
+        <f t="shared" si="6"/>
         <v>0.32043789741665668</v>
       </c>
-      <c r="K34" s="22">
-        <f t="shared" si="4"/>
+      <c r="K34" s="18">
+        <f t="shared" si="6"/>
         <v>0.26887317829213725</v>
       </c>
-      <c r="L34" s="22">
-        <f t="shared" si="4"/>
+      <c r="L34" s="18">
+        <f t="shared" si="6"/>
         <v>0.61141024104787367</v>
       </c>
-      <c r="M34" s="22">
-        <f t="shared" ref="M34:Q34" si="5">(M33*M49)/M48</f>
+      <c r="M34" s="18">
+        <f t="shared" ref="M34:Q34" si="7">(M33*M49)/M48</f>
         <v>0.25045720717623743</v>
       </c>
-      <c r="N34" s="22">
-        <f t="shared" si="5"/>
+      <c r="N34" s="18">
+        <f t="shared" si="7"/>
         <v>8.8396661356319087E-2</v>
       </c>
-      <c r="O34" s="22">
-        <f t="shared" si="5"/>
+      <c r="O34" s="18">
+        <f t="shared" si="7"/>
         <v>0.30938831474711675</v>
       </c>
-      <c r="P34" s="22">
-        <f t="shared" si="5"/>
+      <c r="P34" s="18">
+        <f t="shared" si="7"/>
         <v>6.6297496017239319E-2</v>
       </c>
-      <c r="Q34" s="22">
-        <f t="shared" si="5"/>
+      <c r="Q34" s="18">
+        <f t="shared" si="7"/>
         <v>6.9980690240419266E-2</v>
       </c>
-      <c r="R34" s="24"/>
-      <c r="S34" s="30">
-        <f>SUM(C34:Q34)</f>
+      <c r="R34" s="19"/>
+      <c r="S34" s="22">
+        <f t="shared" si="0"/>
         <v>111.82177661574364</v>
       </c>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B35" s="5" t="s">
+      <c r="B35" t="s">
         <v>13</v>
       </c>
       <c r="C35">
@@ -1901,86 +1893,86 @@
         <v>50</v>
       </c>
       <c r="R35" s="1">
+        <f t="shared" si="2"/>
+        <v>33868</v>
+      </c>
+      <c r="S35" s="2">
         <f t="shared" si="0"/>
         <v>33868</v>
       </c>
-      <c r="S35" s="2">
-        <f>SUM(C35:Q35)</f>
-        <v>33868</v>
-      </c>
-    </row>
-    <row r="36" spans="2:19" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="21" t="s">
+    </row>
+    <row r="36" spans="2:19" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="22">
-        <f t="shared" ref="C36:L36" si="6">(C35*C49)/C48</f>
+      <c r="C36" s="18">
+        <f t="shared" ref="C36:L36" si="8">(C35*C49)/C48</f>
         <v>9.7936134394355179</v>
       </c>
-      <c r="D36" s="22">
-        <f t="shared" si="6"/>
+      <c r="D36" s="18">
+        <f t="shared" si="8"/>
         <v>27.918612211704112</v>
       </c>
-      <c r="E36" s="22">
-        <f t="shared" si="6"/>
+      <c r="E36" s="18">
+        <f t="shared" si="8"/>
         <v>38.474646855337888</v>
       </c>
-      <c r="F36" s="22">
-        <f t="shared" si="6"/>
+      <c r="F36" s="18">
+        <f t="shared" si="8"/>
         <v>3.3738059084328449</v>
       </c>
-      <c r="G36" s="22">
-        <f t="shared" si="6"/>
+      <c r="G36" s="18">
+        <f t="shared" si="8"/>
         <v>3.4732521524587034</v>
       </c>
-      <c r="H36" s="22">
-        <f t="shared" si="6"/>
+      <c r="H36" s="18">
+        <f t="shared" si="8"/>
         <v>4.206207802871516</v>
       </c>
-      <c r="I36" s="22">
-        <f t="shared" si="6"/>
+      <c r="I36" s="18">
+        <f t="shared" si="8"/>
         <v>30.813602871123564</v>
       </c>
-      <c r="J36" s="22">
-        <f t="shared" si="6"/>
+      <c r="J36" s="18">
+        <f t="shared" si="8"/>
         <v>1.723734896448222</v>
       </c>
-      <c r="K36" s="22">
-        <f t="shared" si="6"/>
+      <c r="K36" s="18">
+        <f t="shared" si="8"/>
         <v>1.0386607709367492</v>
       </c>
-      <c r="L36" s="22">
-        <f t="shared" si="6"/>
+      <c r="L36" s="18">
+        <f t="shared" si="8"/>
         <v>1.9189441902767601</v>
       </c>
-      <c r="M36" s="22">
-        <f t="shared" ref="M36:Q36" si="7">(M35*M49)/M48</f>
+      <c r="M36" s="18">
+        <f t="shared" ref="M36:Q36" si="9">(M35*M49)/M48</f>
         <v>0.55984552192335424</v>
       </c>
-      <c r="N36" s="22">
-        <f t="shared" si="7"/>
+      <c r="N36" s="18">
+        <f t="shared" si="9"/>
         <v>0.34253706275573642</v>
       </c>
-      <c r="O36" s="22">
-        <f t="shared" si="7"/>
+      <c r="O36" s="18">
+        <f t="shared" si="9"/>
         <v>0.72927245618963243</v>
       </c>
-      <c r="P36" s="22">
-        <f t="shared" si="7"/>
+      <c r="P36" s="18">
+        <f t="shared" si="9"/>
         <v>0.19152609960535805</v>
       </c>
-      <c r="Q36" s="22">
-        <f t="shared" si="7"/>
+      <c r="Q36" s="18">
+        <f t="shared" si="9"/>
         <v>0.1841597111589981</v>
       </c>
-      <c r="R36" s="24"/>
-      <c r="S36" s="30">
-        <f>SUM(C36:Q36)</f>
+      <c r="R36" s="19"/>
+      <c r="S36" s="22">
+        <f t="shared" si="0"/>
         <v>124.74242195065895</v>
       </c>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B37" s="12" t="s">
+      <c r="B37" t="s">
         <v>14</v>
       </c>
       <c r="C37">
@@ -2029,86 +2021,86 @@
         <v>27</v>
       </c>
       <c r="R37" s="1">
+        <f t="shared" si="2"/>
+        <v>20744</v>
+      </c>
+      <c r="S37" s="2">
         <f t="shared" si="0"/>
         <v>20744</v>
       </c>
-      <c r="S37" s="2">
-        <f>SUM(C37:Q37)</f>
-        <v>20744</v>
-      </c>
-    </row>
-    <row r="38" spans="2:19" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="21" t="s">
+    </row>
+    <row r="38" spans="2:19" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="22">
-        <f t="shared" ref="C38:L38" si="8">(C37*C49)/C48</f>
+      <c r="C38" s="18">
+        <f t="shared" ref="C38:L38" si="10">(C37*C49)/C48</f>
         <v>1.1491565976321481</v>
       </c>
-      <c r="D38" s="22">
-        <f t="shared" si="8"/>
+      <c r="D38" s="18">
+        <f t="shared" si="10"/>
         <v>2.9244562132048899</v>
       </c>
-      <c r="E38" s="22">
-        <f t="shared" si="8"/>
+      <c r="E38" s="18">
+        <f t="shared" si="10"/>
         <v>3.7089765827422219</v>
       </c>
-      <c r="F38" s="22">
-        <f t="shared" si="8"/>
+      <c r="F38" s="18">
+        <f t="shared" si="10"/>
         <v>51.763611612571182</v>
       </c>
-      <c r="G38" s="22">
-        <f t="shared" si="8"/>
+      <c r="G38" s="18">
+        <f t="shared" si="10"/>
         <v>7.1417135987459455</v>
       </c>
-      <c r="H38" s="22">
-        <f t="shared" si="8"/>
+      <c r="H38" s="18">
+        <f t="shared" si="10"/>
         <v>2.6371670637968525</v>
       </c>
-      <c r="I38" s="22">
-        <f t="shared" si="8"/>
+      <c r="I38" s="18">
+        <f t="shared" si="10"/>
         <v>4.5008633407259131</v>
       </c>
-      <c r="J38" s="22">
-        <f t="shared" si="8"/>
+      <c r="J38" s="18">
+        <f t="shared" si="10"/>
         <v>0.58562788148561384</v>
       </c>
-      <c r="K38" s="22">
-        <f t="shared" si="8"/>
+      <c r="K38" s="18">
+        <f t="shared" si="10"/>
         <v>0.46408247212067516</v>
       </c>
-      <c r="L38" s="22">
-        <f t="shared" si="8"/>
+      <c r="L38" s="18">
+        <f t="shared" si="10"/>
         <v>0.67034134861875305</v>
       </c>
-      <c r="M38" s="22">
-        <f t="shared" ref="M38:Q38" si="9">(M37*M49)/M48</f>
+      <c r="M38" s="18">
+        <f t="shared" ref="M38:Q38" si="11">(M37*M49)/M48</f>
         <v>0.31675470319347676</v>
       </c>
-      <c r="N38" s="22">
-        <f t="shared" si="9"/>
+      <c r="N38" s="18">
+        <f t="shared" si="11"/>
         <v>0.12154540936493875</v>
       </c>
-      <c r="O38" s="22">
-        <f t="shared" si="9"/>
+      <c r="O38" s="18">
+        <f t="shared" si="11"/>
         <v>0.27992276096167706</v>
       </c>
-      <c r="P38" s="22">
-        <f t="shared" si="9"/>
+      <c r="P38" s="18">
+        <f t="shared" si="11"/>
         <v>4.0515136454979582E-2</v>
       </c>
-      <c r="Q38" s="22">
-        <f t="shared" si="9"/>
+      <c r="Q38" s="18">
+        <f t="shared" si="11"/>
         <v>9.9446244025858971E-2</v>
       </c>
-      <c r="R38" s="24"/>
-      <c r="S38" s="30">
-        <f>SUM(C38:Q38)</f>
+      <c r="R38" s="19"/>
+      <c r="S38" s="22">
+        <f t="shared" si="0"/>
         <v>76.404180965645139</v>
       </c>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B39" s="12" t="s">
+      <c r="B39" t="s">
         <v>15</v>
       </c>
       <c r="C39">
@@ -2157,86 +2149,86 @@
         <v>121</v>
       </c>
       <c r="R39" s="1">
+        <f t="shared" si="2"/>
+        <v>88474</v>
+      </c>
+      <c r="S39" s="2">
         <f t="shared" si="0"/>
         <v>88474</v>
       </c>
-      <c r="S39" s="2">
-        <f>SUM(C39:Q39)</f>
-        <v>88474</v>
-      </c>
-    </row>
-    <row r="40" spans="2:19" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="21" t="s">
+    </row>
+    <row r="40" spans="2:19" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C40" s="22">
-        <f t="shared" ref="C40:Q40" si="10">(C39*C49)/C48</f>
+      <c r="C40" s="18">
+        <f t="shared" ref="C40:Q40" si="12">(C39*C49)/C48</f>
         <v>6.990702635595567</v>
       </c>
-      <c r="D40" s="22">
-        <f t="shared" si="10"/>
+      <c r="D40" s="18">
+        <f t="shared" si="12"/>
         <v>23.252005130935103</v>
       </c>
-      <c r="E40" s="22">
-        <f t="shared" si="10"/>
+      <c r="E40" s="18">
+        <f t="shared" si="12"/>
         <v>31.030911330291183</v>
       </c>
-      <c r="F40" s="22">
-        <f t="shared" si="10"/>
+      <c r="F40" s="18">
+        <f t="shared" si="12"/>
         <v>97.16634680171056</v>
       </c>
-      <c r="G40" s="22">
-        <f t="shared" si="10"/>
+      <c r="G40" s="18">
+        <f t="shared" si="12"/>
         <v>97.494151087573584</v>
       </c>
-      <c r="H40" s="22">
-        <f t="shared" si="10"/>
+      <c r="H40" s="18">
+        <f t="shared" si="12"/>
         <v>25.517169578190774</v>
       </c>
-      <c r="I40" s="22">
-        <f t="shared" si="10"/>
+      <c r="I40" s="18">
+        <f t="shared" si="12"/>
         <v>34.552045007651223</v>
       </c>
-      <c r="J40" s="22">
-        <f t="shared" si="10"/>
+      <c r="J40" s="18">
+        <f t="shared" si="12"/>
         <v>2.6813653944750122</v>
       </c>
-      <c r="K40" s="22">
-        <f t="shared" si="10"/>
+      <c r="K40" s="18">
+        <f t="shared" si="12"/>
         <v>1.5137928257269644</v>
       </c>
-      <c r="L40" s="22">
-        <f t="shared" si="10"/>
+      <c r="L40" s="18">
+        <f t="shared" si="12"/>
         <v>2.4272249930755949</v>
       </c>
-      <c r="M40" s="22">
-        <f t="shared" si="10"/>
+      <c r="M40" s="18">
+        <f t="shared" si="12"/>
         <v>0.80293634065323172</v>
       </c>
-      <c r="N40" s="22">
-        <f t="shared" si="10"/>
+      <c r="N40" s="18">
+        <f t="shared" si="12"/>
         <v>0.41988414144251568</v>
       </c>
-      <c r="O40" s="22">
-        <f t="shared" si="10"/>
+      <c r="O40" s="18">
+        <f t="shared" si="12"/>
         <v>1.3112171434520663</v>
       </c>
-      <c r="P40" s="22">
-        <f t="shared" si="10"/>
+      <c r="P40" s="18">
+        <f t="shared" si="12"/>
         <v>0.2615067898457773</v>
       </c>
-      <c r="Q40" s="22">
-        <f t="shared" si="10"/>
+      <c r="Q40" s="18">
+        <f t="shared" si="12"/>
         <v>0.44566650100477539</v>
       </c>
-      <c r="R40" s="24"/>
-      <c r="S40" s="30">
-        <f>SUM(C40:Q40)</f>
+      <c r="R40" s="19"/>
+      <c r="S40" s="22">
+        <f t="shared" si="0"/>
         <v>325.86692570162387</v>
       </c>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B41" s="5" t="s">
+      <c r="B41" t="s">
         <v>16</v>
       </c>
       <c r="C41">
@@ -2285,86 +2277,86 @@
         <v>955</v>
       </c>
       <c r="R41" s="1">
+        <f t="shared" si="2"/>
+        <v>3448</v>
+      </c>
+      <c r="S41" s="2">
         <f t="shared" si="0"/>
         <v>3448</v>
       </c>
-      <c r="S41" s="2">
-        <f>SUM(C41:Q41)</f>
-        <v>3448</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="21" t="s">
+    </row>
+    <row r="42" spans="2:19" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B42" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="22">
-        <f t="shared" ref="C42:Q42" si="11">(C41*C49)/C48</f>
+      <c r="C42" s="18">
+        <f t="shared" ref="C42:Q42" si="13">(C41*C49)/C48</f>
         <v>9.5763049802678996E-2</v>
       </c>
-      <c r="D42" s="22">
-        <f t="shared" si="11"/>
+      <c r="D42" s="18">
+        <f t="shared" si="13"/>
         <v>8.8396661356319087E-2</v>
       </c>
-      <c r="E42" s="22">
-        <f t="shared" si="11"/>
+      <c r="E42" s="18">
+        <f t="shared" si="13"/>
         <v>0.30202192630075686</v>
       </c>
-      <c r="F42" s="22">
-        <f t="shared" si="11"/>
+      <c r="F42" s="18">
+        <f t="shared" si="13"/>
         <v>9.9446244025858957E-2</v>
       </c>
-      <c r="G42" s="22">
-        <f t="shared" si="11"/>
+      <c r="G42" s="18">
+        <f t="shared" si="13"/>
         <v>0.33148748008619655</v>
       </c>
-      <c r="H42" s="22">
-        <f t="shared" si="11"/>
+      <c r="H42" s="18">
+        <f t="shared" si="13"/>
         <v>1.1012750727308085</v>
       </c>
-      <c r="I42" s="22">
-        <f t="shared" si="11"/>
+      <c r="I42" s="18">
+        <f t="shared" si="13"/>
         <v>3.793690049875361</v>
       </c>
-      <c r="J42" s="22">
-        <f t="shared" si="11"/>
+      <c r="J42" s="18">
+        <f t="shared" si="13"/>
         <v>0.25782359562259732</v>
       </c>
-      <c r="K42" s="22">
-        <f t="shared" si="11"/>
+      <c r="K42" s="18">
+        <f t="shared" si="13"/>
         <v>0.24677401295305745</v>
       </c>
-      <c r="L42" s="22">
-        <f t="shared" si="11"/>
+      <c r="L42" s="18">
+        <f t="shared" si="13"/>
         <v>0.8618674482241111</v>
       </c>
-      <c r="M42" s="22">
-        <f t="shared" si="11"/>
+      <c r="M42" s="18">
+        <f t="shared" si="13"/>
         <v>0.3535866454252764</v>
       </c>
-      <c r="N42" s="22">
-        <f t="shared" si="11"/>
+      <c r="N42" s="18">
+        <f t="shared" si="13"/>
         <v>0.29465553785439696</v>
       </c>
-      <c r="O42" s="22">
-        <f t="shared" si="11"/>
+      <c r="O42" s="18">
+        <f t="shared" si="13"/>
         <v>0.92448175001817035</v>
       </c>
-      <c r="P42" s="22">
-        <f t="shared" si="11"/>
+      <c r="P42" s="18">
+        <f t="shared" si="13"/>
         <v>0.43093372411205555</v>
       </c>
-      <c r="Q42" s="22">
-        <f t="shared" si="11"/>
+      <c r="Q42" s="18">
+        <f t="shared" si="13"/>
         <v>3.5174504831368636</v>
       </c>
-      <c r="R42" s="24"/>
-      <c r="S42" s="30">
-        <f>SUM(C42:Q42)</f>
+      <c r="R42" s="19"/>
+      <c r="S42" s="22">
+        <f t="shared" si="0"/>
         <v>12.699653681524509</v>
       </c>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B43" s="12" t="s">
+      <c r="B43" t="s">
         <v>20</v>
       </c>
       <c r="C43">
@@ -2413,139 +2405,139 @@
         <v>306</v>
       </c>
       <c r="R43" s="1">
+        <f t="shared" si="2"/>
+        <v>1600</v>
+      </c>
+      <c r="S43" s="2">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="S43" s="2">
-        <f>SUM(C43:Q43)</f>
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="21" t="s">
+    </row>
+    <row r="44" spans="2:19" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B44" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C44" s="22">
-        <f t="shared" ref="C44:Q44" si="12">(C43*C49)/C48</f>
+      <c r="C44" s="18">
+        <f t="shared" ref="C44:Q44" si="14">(C43*C49)/C48</f>
         <v>2.9465553785439694E-2</v>
       </c>
-      <c r="D44" s="22">
-        <f t="shared" si="12"/>
+      <c r="D44" s="18">
+        <f t="shared" si="14"/>
         <v>0.11417902091857883</v>
       </c>
-      <c r="E44" s="22">
-        <f t="shared" si="12"/>
+      <c r="E44" s="18">
+        <f t="shared" si="14"/>
         <v>0.20257568227489792</v>
       </c>
-      <c r="F44" s="22">
-        <f t="shared" si="12"/>
+      <c r="F44" s="18">
+        <f t="shared" si="14"/>
         <v>6.2614301794059343E-2</v>
       </c>
-      <c r="G44" s="22">
-        <f t="shared" si="12"/>
+      <c r="G44" s="18">
+        <f t="shared" si="14"/>
         <v>0.27255637251531717</v>
       </c>
-      <c r="H44" s="22">
-        <f t="shared" si="12"/>
+      <c r="H44" s="18">
+        <f t="shared" si="14"/>
         <v>0.54142955080745436</v>
       </c>
-      <c r="I44" s="22">
-        <f t="shared" si="12"/>
+      <c r="I44" s="18">
+        <f t="shared" si="14"/>
         <v>1.9852416862939994</v>
       </c>
-      <c r="J44" s="22">
-        <f t="shared" si="12"/>
+      <c r="J44" s="18">
+        <f t="shared" si="14"/>
         <v>0.16574374004309825</v>
       </c>
-      <c r="K44" s="22">
-        <f t="shared" si="12"/>
+      <c r="K44" s="18">
+        <f t="shared" si="14"/>
         <v>0.1841597111589981</v>
       </c>
-      <c r="L44" s="22">
-        <f t="shared" si="12"/>
+      <c r="L44" s="18">
+        <f t="shared" si="14"/>
         <v>0.41988414144251562</v>
       </c>
-      <c r="M44" s="22">
-        <f t="shared" si="12"/>
+      <c r="M44" s="18">
+        <f t="shared" si="14"/>
         <v>0.14364457470401851</v>
       </c>
-      <c r="N44" s="22">
-        <f t="shared" si="12"/>
+      <c r="N44" s="18">
+        <f t="shared" si="14"/>
         <v>0.10681263247221891</v>
       </c>
-      <c r="O44" s="22">
-        <f t="shared" si="12"/>
+      <c r="O44" s="18">
+        <f t="shared" si="14"/>
         <v>0.4014681703266158</v>
       </c>
-      <c r="P44" s="22">
-        <f t="shared" si="12"/>
+      <c r="P44" s="18">
+        <f t="shared" si="14"/>
         <v>0.13627818625765861</v>
       </c>
-      <c r="Q44" s="22">
-        <f t="shared" si="12"/>
+      <c r="Q44" s="18">
+        <f t="shared" si="14"/>
         <v>1.1270574322930682</v>
       </c>
-      <c r="R44" s="24"/>
-      <c r="S44" s="30">
-        <f>SUM(C44:Q44)</f>
+      <c r="R44" s="19"/>
+      <c r="S44" s="22">
+        <f t="shared" si="0"/>
         <v>5.8931107570879391</v>
       </c>
     </row>
     <row r="45" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="8">
         <v>5952</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="8">
         <v>3092</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E45" s="8">
         <v>6741</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F45" s="8">
         <v>1852</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G45" s="8">
         <v>4054</v>
       </c>
-      <c r="H45" s="9">
+      <c r="H45" s="8">
         <v>7781</v>
       </c>
-      <c r="I45" s="9">
+      <c r="I45" s="8">
         <v>43037</v>
       </c>
-      <c r="J45" s="9">
+      <c r="J45" s="8">
         <v>3068</v>
       </c>
-      <c r="K45" s="9">
+      <c r="K45" s="8">
         <v>2991</v>
       </c>
-      <c r="L45" s="9">
+      <c r="L45" s="8">
         <v>13017</v>
       </c>
-      <c r="M45" s="9">
+      <c r="M45" s="8">
         <v>6831</v>
       </c>
-      <c r="N45" s="9">
+      <c r="N45" s="8">
         <v>3646</v>
       </c>
-      <c r="O45" s="9">
+      <c r="O45" s="8">
         <v>39800</v>
       </c>
-      <c r="P45" s="13">
+      <c r="P45" s="8">
         <v>2012</v>
       </c>
-      <c r="Q45" s="13">
+      <c r="Q45" s="8">
         <v>5633</v>
       </c>
-      <c r="R45" s="10">
+      <c r="R45" s="9">
         <f>SUM(C45:Q45)</f>
         <v>149507</v>
       </c>
       <c r="S45" s="2">
-        <f>SUM(C45:Q45)</f>
+        <f t="shared" si="0"/>
         <v>149507</v>
       </c>
     </row>
@@ -2555,71 +2547,71 @@
       </c>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B47" s="12" t="s">
+      <c r="B47" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="16">
-        <f>SUM(C27, C29, C31, C33,C35, C37, C39, C41, C43,C45)</f>
+      <c r="C47" s="13">
+        <f t="shared" ref="C47:R47" si="15">SUM(C27, C29, C31, C33,C35, C37, C39, C41, C43,C45)</f>
         <v>78883</v>
       </c>
-      <c r="D47" s="16">
-        <f>SUM(D27, D29, D31, D33,D35, D37, D39, D41, D43,D45)</f>
+      <c r="D47" s="13">
+        <f t="shared" si="15"/>
         <v>80065</v>
       </c>
-      <c r="E47" s="16">
-        <f>SUM(E27, E29, E31, E33,E35, E37, E39, E41, E43,E45)</f>
+      <c r="E47" s="13">
+        <f t="shared" si="15"/>
         <v>82412</v>
       </c>
-      <c r="F47" s="16">
-        <f>SUM(F27, F29, F31, F33,F35, F37, F39, F41, F43,F45)</f>
+      <c r="F47" s="13">
+        <f t="shared" si="15"/>
         <v>55413</v>
       </c>
-      <c r="G47" s="16">
-        <f>SUM(G27, G29, G31, G33,G35, G37, G39, G41, G43,G45)</f>
+      <c r="G47" s="13">
+        <f t="shared" si="15"/>
         <v>64956</v>
       </c>
-      <c r="H47" s="16">
-        <f>SUM(H27, H29, H31, H33,H35, H37, H39, H41, H43,H45)</f>
+      <c r="H47" s="13">
+        <f t="shared" si="15"/>
         <v>119751</v>
       </c>
-      <c r="I47" s="16">
-        <f>SUM(I27, I29, I31, I33,I35, I37, I39, I41, I43,I45)</f>
+      <c r="I47" s="13">
+        <f t="shared" si="15"/>
         <v>695107</v>
       </c>
-      <c r="J47" s="16">
-        <f>SUM(J27, J29, J31, J33,J35, J37, J39, J41, J43,J45)</f>
+      <c r="J47" s="13">
+        <f t="shared" si="15"/>
         <v>57280</v>
       </c>
-      <c r="K47" s="16">
-        <f>SUM(K27, K29, K31, K33,K35, K37, K39, K41, K43,K45)</f>
+      <c r="K47" s="13">
+        <f t="shared" si="15"/>
         <v>49013</v>
       </c>
-      <c r="L47" s="16">
-        <f>SUM(L27, L29, L31, L33,L35, L37, L39, L41, L43,L45)</f>
+      <c r="L47" s="13">
+        <f t="shared" si="15"/>
         <v>189632</v>
       </c>
-      <c r="M47" s="16">
-        <f>SUM(M27, M29, M31, M33,M35, M37, M39, M41, M43,M45)</f>
+      <c r="M47" s="13">
+        <f t="shared" si="15"/>
         <v>321328</v>
       </c>
-      <c r="N47" s="16">
-        <f>SUM(N27, N29, N31, N33,N35, N37, N39, N41, N43,N45)</f>
+      <c r="N47" s="13">
+        <f t="shared" si="15"/>
         <v>96311</v>
       </c>
-      <c r="O47" s="16">
-        <f>SUM(O27, O29, O31, O33,O35, O37, O39, O41, O43,O45)</f>
+      <c r="O47" s="13">
+        <f t="shared" si="15"/>
         <v>228766</v>
       </c>
-      <c r="P47" s="16">
-        <f>SUM(P27, P29, P31, P33,P35, P37, P39, P41, P43,P45)</f>
+      <c r="P47" s="13">
+        <f t="shared" si="15"/>
         <v>29075</v>
       </c>
-      <c r="Q47" s="16">
-        <f>SUM(Q27, Q29, Q31, Q33,Q35, Q37, Q39, Q41, Q43,Q45)</f>
+      <c r="Q47" s="13">
+        <f t="shared" si="15"/>
         <v>37791</v>
       </c>
-      <c r="R47" s="16">
-        <f>SUM(R27, R29, R31, R33,R35, R37, R39, R41, R43,R45)</f>
+      <c r="R47" s="13">
+        <f t="shared" si="15"/>
         <v>2185783</v>
       </c>
       <c r="S47" s="2">
@@ -2627,81 +2619,81 @@
         <v>7500.0000000000009</v>
       </c>
     </row>
-    <row r="48" spans="2:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="17" t="s">
+    <row r="48" spans="2:19" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="18">
-        <f t="shared" ref="C48:Q48" si="13">SUM(C27,C29, C31, C33, C35, C37, C39, C41, C43)</f>
+      <c r="C48" s="14">
+        <f t="shared" ref="C48:Q48" si="16">SUM(C27,C29, C31, C33, C35, C37, C39, C41, C43)</f>
         <v>72931</v>
       </c>
-      <c r="D48" s="18">
-        <f t="shared" si="13"/>
+      <c r="D48" s="14">
+        <f t="shared" si="16"/>
         <v>76973</v>
       </c>
-      <c r="E48" s="18">
-        <f t="shared" si="13"/>
+      <c r="E48" s="14">
+        <f t="shared" si="16"/>
         <v>75671</v>
       </c>
-      <c r="F48" s="18">
-        <f t="shared" si="13"/>
+      <c r="F48" s="14">
+        <f t="shared" si="16"/>
         <v>53561</v>
       </c>
-      <c r="G48" s="18">
-        <f t="shared" si="13"/>
+      <c r="G48" s="14">
+        <f t="shared" si="16"/>
         <v>60902</v>
       </c>
-      <c r="H48" s="18">
-        <f t="shared" si="13"/>
+      <c r="H48" s="14">
+        <f t="shared" si="16"/>
         <v>111970</v>
       </c>
-      <c r="I48" s="18">
-        <f t="shared" si="13"/>
+      <c r="I48" s="14">
+        <f t="shared" si="16"/>
         <v>652070</v>
       </c>
-      <c r="J48" s="18">
-        <f t="shared" si="13"/>
+      <c r="J48" s="14">
+        <f t="shared" si="16"/>
         <v>54212</v>
       </c>
-      <c r="K48" s="18">
-        <f t="shared" si="13"/>
+      <c r="K48" s="14">
+        <f t="shared" si="16"/>
         <v>46022</v>
       </c>
-      <c r="L48" s="18">
-        <f t="shared" si="13"/>
+      <c r="L48" s="14">
+        <f t="shared" si="16"/>
         <v>176615</v>
       </c>
-      <c r="M48" s="18">
-        <f t="shared" si="13"/>
+      <c r="M48" s="14">
+        <f t="shared" si="16"/>
         <v>314497</v>
       </c>
-      <c r="N48" s="18">
-        <f t="shared" si="13"/>
+      <c r="N48" s="14">
+        <f t="shared" si="16"/>
         <v>92665</v>
       </c>
-      <c r="O48" s="18">
-        <f t="shared" si="13"/>
+      <c r="O48" s="14">
+        <f t="shared" si="16"/>
         <v>188966</v>
       </c>
-      <c r="P48" s="18">
-        <f t="shared" si="13"/>
+      <c r="P48" s="14">
+        <f t="shared" si="16"/>
         <v>27063</v>
       </c>
-      <c r="Q48" s="18">
-        <f t="shared" si="13"/>
+      <c r="Q48" s="14">
+        <f t="shared" si="16"/>
         <v>32158</v>
       </c>
-      <c r="R48" s="19">
+      <c r="R48" s="15">
         <f>SUM(R27:R43)</f>
         <v>2036276</v>
       </c>
-      <c r="S48" s="19">
+      <c r="S48" s="15">
         <f>SUM(C48:Q48)</f>
         <v>2036276</v>
       </c>
     </row>
     <row r="49" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B49" s="12" t="s">
+      <c r="B49" t="s">
         <v>64</v>
       </c>
       <c r="C49" s="2">
@@ -2774,7 +2766,7 @@
       </c>
     </row>
     <row r="50" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B50" s="12" t="s">
+      <c r="B50" t="s">
         <v>65</v>
       </c>
       <c r="C50" s="2">
@@ -2847,7 +2839,7 @@
       </c>
     </row>
     <row r="51" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B51" s="12" t="s">
+      <c r="B51" t="s">
         <v>66</v>
       </c>
       <c r="C51" s="2">
@@ -2920,7 +2912,7 @@
       </c>
     </row>
     <row r="52" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B52" s="12" t="s">
+      <c r="B52" t="s">
         <v>63</v>
       </c>
       <c r="C52" s="2">
@@ -3019,18 +3011,18 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -3042,37 +3034,37 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>189632</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <f>(B6*100)/B9</f>
         <v>9.3074848803434165</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>1796451</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <f>(B7*100)/B9</f>
         <v>88.17309589509054</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>51331</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <f>(B8*100)/B9</f>
         <v>2.5194192245660432</v>
       </c>
@@ -3091,11 +3083,11 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
@@ -3107,121 +3099,121 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>1655</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <f>(B14*100)/B24</f>
         <v>0.87274299696253799</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>182</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <f>(B15*100)/B24</f>
         <v>9.5975362807964898E-2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>659</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <f>(B16*100)/B24</f>
         <v>0.34751518731015862</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>234</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <f>(B17*100)/B24</f>
         <v>0.12339689503881202</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>166</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <f>(B18*100)/B24</f>
         <v>8.753796827539656E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>172652</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <f>(B19*100)/B24</f>
         <v>91.045815052311852</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>13017</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <f>(B20*100)/B24</f>
         <v>6.8643477894026326</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="11">
         <v>521</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <f>(B21*100)/B24</f>
         <v>0.27474265946675669</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>432</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <f>(B22*100)/B24</f>
         <v>0.22780965237934525</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>114</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <f>(B23*100)/B24</f>
         <v>6.0116436044549443E-2</v>
       </c>
@@ -3263,18 +3255,18 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -3286,37 +3278,37 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>321328</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <f>(B6*100)/B9</f>
         <v>33.568736262358655</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>615847</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <f>(B7*100)/B9</f>
         <v>64.336769658930407</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>20049</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <f>(B8*100)/B9</f>
         <v>2.0944940787109392</v>
       </c>
@@ -3335,11 +3327,11 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
@@ -3351,121 +3343,121 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>489</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <f>(B14*100)/B24</f>
         <v>0.1521809490613952</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>86</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <f>(B15*100)/B24</f>
         <v>2.6763929691779115E-2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>218</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <f>(B16*100)/B24</f>
         <v>6.7843449683812174E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>96</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <f>(B17*100)/B24</f>
         <v>2.9876014539660409E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>68</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <f>(B18*100)/B24</f>
         <v>2.1162176965592791E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>313188</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <f>(B19*100)/B24</f>
         <v>97.466762933824626</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>6831</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <f>(B20*100)/B24</f>
         <v>2.1258651595877112</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="11">
         <v>152</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <f>(B21*100)/B24</f>
         <v>4.730368968779565E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>161</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <f>(B22*100)/B24</f>
         <v>5.010456605088881E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>39</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <f>(B23*100)/B24</f>
         <v>1.2137130906737041E-2</v>
       </c>
@@ -3507,18 +3499,18 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -3530,37 +3522,37 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>96311</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <f>(B6*100)/B9</f>
         <v>25.026439765407172</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>279675</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <f>(B7*100)/B9</f>
         <v>72.673625457011667</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>8851</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <f>(B8*100)/B9</f>
         <v>2.2999347775811576</v>
       </c>
@@ -3579,11 +3571,11 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
@@ -3595,121 +3587,121 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>266</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <f>(B14*100)/B24</f>
         <v>0.27618859735648055</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>33</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <f>(B15*100)/B24</f>
         <v>3.4263998920164886E-2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>114</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <f>(B16*100)/B24</f>
         <v>0.11836654172420595</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>80</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <f>(B17*100)/B24</f>
         <v>8.3064239806460327E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>24</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <f>(B18*100)/B24</f>
         <v>2.4919271941938097E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>91951</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <f>(B19*100)/B24</f>
         <v>95.472998930547917</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>3646</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <f>(B20*100)/B24</f>
         <v>3.7856527291794291</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="11">
         <v>93</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <f>(B21*100)/B24</f>
         <v>9.6562178775010124E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>75</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <f>(B22*100)/B24</f>
         <v>7.7872724818556546E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>29</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <f>(B23*100)/B24</f>
         <v>3.0110786929841867E-2</v>
       </c>
@@ -3751,18 +3743,18 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -3774,37 +3766,37 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>228766</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <f>(B6*100)/B9</f>
         <v>27.605139566650738</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>581826</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <f>(B7*100)/B9</f>
         <v>70.208806962162782</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>18116</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <f>(B8*100)/B9</f>
         <v>2.1860534711864732</v>
       </c>
@@ -3823,11 +3815,11 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
@@ -3839,121 +3831,121 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>830</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <f>(B14*100)/B24</f>
         <v>0.36281615274997159</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>76</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <f>(B15*100)/B24</f>
         <v>3.3221720010840769E-2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>356</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <f>(B16*100)/B24</f>
         <v>0.15561753057709624</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>251</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <f>(B17*100)/B24</f>
         <v>0.10971910161475044</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>84</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <f>(B18*100)/B24</f>
         <v>3.6718743169876646E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>186854</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <f>(B19*100)/B24</f>
         <v>81.679095669811076</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>39800</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <f>(B20*100)/B24</f>
         <v>17.397690216203458</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="11">
         <v>198</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <f>(B21*100)/B24</f>
         <v>8.6551323186137799E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>208</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <f>(B22*100)/B24</f>
         <v>9.092260213493264E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>109</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <f>(B23*100)/B24</f>
         <v>4.764694054186374E-2</v>
       </c>
@@ -3995,18 +3987,18 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -4018,37 +4010,37 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>29075</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <f>(B6*100)/B9</f>
         <v>28.184920219469163</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>72273</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <f>(B7*100)/B9</f>
         <v>70.060489734194149</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>1810</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <f>(B8*100)/B9</f>
         <v>1.7545900463366875</v>
       </c>
@@ -4067,11 +4059,11 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
@@ -4083,121 +4075,121 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>162</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <f>(B14*100)/B24</f>
         <v>0.55717970765262248</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>11</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <f>(B15*100)/B24</f>
         <v>3.7833190025795355E-2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>71</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <f>(B16*100)/B24</f>
         <v>0.24419604471195186</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>117</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <f>(B17*100)/B24</f>
         <v>0.40240756663800514</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>18</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <f>(B18*100)/B24</f>
         <v>6.1908856405846945E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>26570</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <f>(B19*100)/B24</f>
         <v>91.384350816852972</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>2012</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <f>(B20*100)/B24</f>
         <v>6.9200343938091144</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="11">
         <v>52</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <f>(B21*100)/B24</f>
         <v>0.17884780739466896</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>25</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <f>(B22*100)/B24</f>
         <v>8.5984522785898534E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>37</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <f>(B23*100)/B24</f>
         <v>0.12725709372312985</v>
       </c>
@@ -4239,18 +4231,18 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -4262,37 +4254,37 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>37791</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <f>(B6*100)/B9</f>
         <v>22.692799625299489</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>125946</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <f>(B7*100)/B9</f>
         <v>75.628253859595389</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>2796</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <f>(B8*100)/B9</f>
         <v>1.6789465151051144</v>
       </c>
@@ -4311,11 +4303,11 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
@@ -4327,121 +4319,121 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>163</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <f>(B14*100)/B24</f>
         <v>0.43131962636606597</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>27</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <f>(B15*100)/B24</f>
         <v>7.1445582281495598E-2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>121</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <f>(B16*100)/B24</f>
         <v>0.32018205392818394</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>955</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <f>(B17*100)/B24</f>
         <v>2.5270567066232701</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>19</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <f>(B18*100)/B24</f>
         <v>5.0276520864756161E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>30463</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <f>(B19*100)/B24</f>
         <v>80.609139742266677</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>5633</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <f>(B20*100)/B24</f>
         <v>14.905665370061655</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="11">
         <v>50</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <f>(B21*100)/B24</f>
         <v>0.13230663385462146</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>54</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <f>(B22*100)/B24</f>
         <v>0.1428911645629912</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>306</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <f>(B23*100)/B24</f>
         <v>0.80971659919028338</v>
       </c>
@@ -4483,18 +4475,18 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -4506,37 +4498,37 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>695116</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <f>(B6*100)/B9</f>
         <v>9.7727367306976376</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>6214240</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <f>(B7*100)/B9</f>
         <v>87.366902072992829</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>203452</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <f>(B8*100)/B9</f>
         <v>2.8603611963095306</v>
       </c>
@@ -4555,11 +4547,11 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
@@ -4571,121 +4563,121 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>15988</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <f>(B14*100)/B24</f>
         <v>2.3000477618124169</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>1222</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <f>(B15*100)/B24</f>
         <v>0.17579799630565257</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>9381</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <f>(B16*100)/B24</f>
         <v>1.3495589225395475</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>1030</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <f>(B17*100)/B24</f>
         <v>0.14817670719707215</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>1129</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <f>(B18*100)/B24</f>
         <v>0.16241893439368393</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>611412</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <f>(B19*100)/B24</f>
         <v>87.958268835705127</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>43037</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <f>(B20*100)/B24</f>
         <v>6.1913407258644604</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="11">
         <v>8366</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <f>(B21*100)/B24</f>
         <v>1.203540128554083</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>3012</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <f>(B22*100)/B24</f>
         <v>0.43330897289085563</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>539</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <f>(B23*100)/B24</f>
         <v>7.7541014737108629E-2</v>
       </c>
@@ -4727,18 +4719,18 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -4750,37 +4742,37 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>78883</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <f>(B6*100)/B9</f>
         <v>34.893483376683122</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>142038</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <f>(B7*100)/B9</f>
         <v>62.829768034396729</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>5147</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <f>(B8*100)/B9</f>
         <v>2.2767485889201478</v>
       </c>
@@ -4799,11 +4791,11 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
@@ -4815,121 +4807,121 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>59432</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <f>(B14*100)/B24</f>
         <v>75.341962146470095</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>312</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <f>(B15*100)/B24</f>
         <v>0.39552248266419887</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>1898</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <f>(B16*100)/B24</f>
         <v>2.4060951028738766</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>26</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <f>(B17*100)/B24</f>
         <v>3.2960206888683237E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>744</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <f>(B18*100)/B24</f>
         <v>0.94316899712232038</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>7814</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <f>(B19*100)/B24</f>
         <v>9.905809870314263</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>5952</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <f>(B20*100)/B24</f>
         <v>7.5453519769785631</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="11">
         <v>2659</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <f>(B21*100)/B24</f>
         <v>3.370815004500336</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>38</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <f>(B22*100)/B24</f>
         <v>4.8172610068075501E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>8</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <f>(B23*100)/B24</f>
         <v>1.0141602119594842E-2</v>
       </c>
@@ -4975,18 +4967,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -4998,37 +4990,37 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>80065</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <f>(B6*100)/B9</f>
         <v>24.221165423314517</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>242031</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <f>(B7*100)/B9</f>
         <v>73.218920734031542</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>8462</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <f>(B8*100)/B9</f>
         <v>2.5599138426539367</v>
       </c>
@@ -5047,11 +5039,11 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
@@ -5063,121 +5055,121 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>48964</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <f>(B13*100)/B23</f>
         <v>61.155311309560979</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>794</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <f>(B14*100)/B23</f>
         <v>0.99169424842315623</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>6313</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <f>(B15*100)/B23</f>
         <v>7.8848435646037593</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>24</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <f>(B16*100)/B23</f>
         <v>2.9975644788609253E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>816</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <f>(B17*100)/B23</f>
         <v>1.0191719228127147</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>12367</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <f>(B18*100)/B23</f>
         <v>15.446199962530445</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>3092</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <f>(B19*100)/B23</f>
         <v>3.8618622369324922</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>7580</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <f>(B20*100)/B23</f>
         <v>9.4673078124024226</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>84</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <f>(B21*100)/B23</f>
         <v>0.1049147567601324</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="9">
         <v>31</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="10">
         <f>(B22*100)/B23</f>
         <v>3.8718541185286955E-2</v>
       </c>
@@ -5219,18 +5211,18 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -5242,37 +5234,37 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>82412</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <f>(B6*100)/B9</f>
         <v>13.565002123337953</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>503342</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <f>(B7*100)/B9</f>
         <v>82.850013332587153</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>21780</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <f>(B8*100)/B9</f>
         <v>3.5849845440748993</v>
       </c>
@@ -5291,11 +5283,11 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
@@ -5307,121 +5299,121 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>12861</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <f>(B15*100)/B25</f>
         <v>15.60573702858807</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>1007</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <f>(B16*100)/B25</f>
         <v>1.221909430665437</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>8425</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <f>(B17*100)/B25</f>
         <v>10.223025772945688</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>82</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <f>(B18*100)/B25</f>
         <v>9.9500072804931325E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>25262</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <f>(B19*100)/B25</f>
         <v>30.653302917050915</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>17430</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <f>(B20*100)/B25</f>
         <v>21.149832548657962</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>6741</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <f>(B21*100)/B25</f>
         <v>8.1796340338785622</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>10446</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <f>(B22*100)/B25</f>
         <v>12.675338542930641</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" t="s">
         <v>11</v>
       </c>
       <c r="B23">
         <v>103</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <f>(B23*100)/B25</f>
         <v>0.12498179876716983</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="9">
         <v>55</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <f>(B24*100)/B25</f>
         <v>6.673785371062467E-2</v>
       </c>
@@ -5463,18 +5455,18 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -5486,37 +5478,37 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>55413</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <f>(B6*100)/B9</f>
         <v>19.363800285147185</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>225511</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <f>(B7*100)/B9</f>
         <v>78.80370970898214</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>5244</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <f>(B8*100)/B9</f>
         <v>1.8324900058706775</v>
       </c>
@@ -5535,11 +5527,11 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
@@ -5551,121 +5543,121 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>2716</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <f>(B15*100)/B25</f>
         <v>4.9013769332106181</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>14054</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <f>(B16*100)/B25</f>
         <v>25.36227960947792</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>26381</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <f>(B17*100)/B25</f>
         <v>47.607962030570441</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>27</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <f>(B18*100)/B25</f>
         <v>4.8725028422933248E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>375</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <f>(B19*100)/B25</f>
         <v>0.67673650587407286</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>9020</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <f>(B20*100)/B25</f>
         <v>16.277768754624365</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>1852</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <f>(B21*100)/B25</f>
         <v>3.3421760236767546</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>916</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <f>(B22*100)/B25</f>
         <v>1.6530417050150688</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" t="s">
         <v>11</v>
       </c>
       <c r="B23">
         <v>55</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <f>(B23*100)/B25</f>
         <v>9.9254687528197355E-2</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="9">
         <v>17</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="10">
         <f>(B24*100)/B25</f>
         <v>3.0678721599624637E-2</v>
       </c>
@@ -5707,18 +5699,18 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -5730,37 +5722,37 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>64956</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <f>(B6*100)/B9</f>
         <v>8.5740760784914194</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>665757</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <f>(B7*100)/B9</f>
         <v>87.878735879490904</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>26873</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <f>(B8*100)/B9</f>
         <v>3.5471880420176718</v>
       </c>
@@ -5779,11 +5771,11 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
@@ -5795,121 +5787,121 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>5530</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <f>(B15*100)/B25</f>
         <v>8.5134552620235233</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>1939</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <f>(B16*100)/B25</f>
         <v>2.985097604532299</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>26470</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <f>(B17*100)/B25</f>
         <v>40.75066198657553</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18">
         <v>90</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <f>(B18*100)/B25</f>
         <v>0.13855532976168483</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>957</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <f>(B19*100)/B25</f>
         <v>1.4733050064659154</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>24750</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <f>(B20*100)/B25</f>
         <v>38.102715684463327</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>4054</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <f>(B21*100)/B25</f>
         <v>6.2411478539318921</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>943</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <f>(B22*100)/B25</f>
         <v>1.4517519551696534</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>149</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <f>(B23*100)/B25</f>
         <v>0.22938604593878933</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="9">
         <v>74</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="10">
         <f>(B24*100)/B25</f>
         <v>0.1139232711373853</v>
       </c>
@@ -5951,18 +5943,18 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -5974,37 +5966,37 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>119751</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <f>(B6*100)/B9</f>
         <v>6.5945739362586746</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>1635621</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <f>(B7*100)/B9</f>
         <v>90.072096401678067</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>60530</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <f>(B8*100)/B9</f>
         <v>3.3333296620632611</v>
       </c>
@@ -6023,11 +6015,11 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
@@ -6039,121 +6031,121 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>5881</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <f>(B14*100)/B24</f>
         <v>4.9110237075264509</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>716</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <f>(B15*100)/B24</f>
         <v>0.59790732436472349</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>6928</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <f>(B16*100)/B24</f>
         <v>5.7853379094955368</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>299</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <f>(B17*100)/B24</f>
         <v>0.24968476254895575</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>547</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <f>(B18*100)/B24</f>
         <v>0.45678115422835719</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>91744</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <f>(B19*100)/B24</f>
         <v>76.612303863850826</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>7781</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <f>(B20*100)/B24</f>
         <v>6.4976492889412194</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>1142</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <f>(B21*100)/B24</f>
         <v>0.95364548103982427</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="11">
         <v>4566</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <f>(B22*100)/B24</f>
         <v>3.8129117919683342</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>147</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <f>(B23*100)/B24</f>
         <v>0.12275471603577423</v>
       </c>
@@ -6195,18 +6187,18 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -6218,37 +6210,37 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>57280</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <f>(B6*100)/B9</f>
         <v>6.2631553050390627</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>830481</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <f>(B7*100)/B9</f>
         <v>90.807113842251155</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>26794</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <f>(B8*100)/B9</f>
         <v>2.9297308527097878</v>
       </c>
@@ -6267,11 +6259,11 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
@@ -6283,121 +6275,121 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>87</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <f>(B14*100)/B24</f>
         <v>0.15188547486033518</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>728</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <f>(B15*100)/B24</f>
         <v>1.270949720670391</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>253</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <f>(B16*100)/B24</f>
         <v>0.44168994413407819</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>45</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <f>(B17*100)/B24</f>
         <v>7.8561452513966484E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>70</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <f>(B18*100)/B24</f>
         <v>0.12220670391061453</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>51274</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <f>(B19*100)/B24</f>
         <v>89.514664804469277</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>1128</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <f>(B20*100)/B24</f>
         <v>1.9692737430167597</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>159</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <f>(B21*100)/B24</f>
         <v>0.27758379888268159</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="11">
         <v>468</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <f>(B22*100)/B24</f>
         <v>0.81703910614525144</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>3068</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <f>(B23*100)/B24</f>
         <v>5.3561452513966481</v>
       </c>
@@ -6439,18 +6431,18 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -6462,37 +6454,37 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>49013</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <f>(B6*100)/B9</f>
         <v>4.6904636585482562</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>959245</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <f>(B7*100)/B9</f>
         <v>91.798172161347438</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>36692</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <f>(B8*100)/B9</f>
         <v>3.5113641801043114</v>
       </c>
@@ -6511,11 +6503,11 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
@@ -6527,121 +6519,121 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>689</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <f>(B14*100)/B24</f>
         <v>1.4057494950319303</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>126</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <f>(B15*100)/B24</f>
         <v>0.25707465366331383</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>411</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <f>(B16*100)/B24</f>
         <v>0.83855303694938077</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>67</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <f>(B17*100)/B24</f>
         <v>0.13669842694795259</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>73</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <f>(B18*100)/B24</f>
         <v>0.1489400771223961</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>44140</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <f>(B19*100)/B24</f>
         <v>90.057739783322788</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>2991</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <f>(B20*100)/B24</f>
         <v>6.1024626119600924</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="11">
         <v>282</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <f>(B21*100)/B24</f>
         <v>0.57535755819884515</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>184</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <f>(B22*100)/B24</f>
         <v>0.37541060534960113</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>50</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <f>(B23*100)/B24</f>
         <v>0.10201375145369596</v>
       </c>
